--- a/result/shapeletNumber.xlsx
+++ b/result/shapeletNumber.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accuraty" sheetId="2" r:id="rId1"/>
     <sheet name="Time" sheetId="3" r:id="rId2"/>
-    <sheet name="Time Rate" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>Beef</t>
   </si>
@@ -944,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1426,39 +1425,39 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <f>C2/B2</f>
+        <f t="shared" ref="C18:C29" si="0">C2/B2</f>
         <v>1.4538668156877248</v>
       </c>
       <c r="D18">
-        <f>D2/B2</f>
+        <f t="shared" ref="D18:D29" si="1">D2/B2</f>
         <v>1.5157000148840123</v>
       </c>
       <c r="E18">
-        <f>E2/B2</f>
+        <f t="shared" ref="E18:E29" si="2">E2/B2</f>
         <v>1.737046640182236</v>
       </c>
       <c r="F18">
-        <f>F2/B2</f>
+        <f t="shared" ref="F18:F29" si="3">F2/B2</f>
         <v>1.0497268554391097</v>
       </c>
       <c r="G18">
-        <f>G2/B2</f>
+        <f t="shared" ref="G18:G29" si="4">G2/B2</f>
         <v>0.71677683485680499</v>
       </c>
       <c r="H18">
-        <f>H2/B2</f>
+        <f t="shared" ref="H18:H29" si="5">H2/B2</f>
         <v>0.5968267920097281</v>
       </c>
       <c r="I18">
-        <f>I2/B2</f>
+        <f t="shared" ref="I18:I29" si="6">I2/B2</f>
         <v>0.57945793998402173</v>
       </c>
       <c r="J18">
-        <f>J2/B2</f>
+        <f t="shared" ref="J18:J29" si="7">J2/B2</f>
         <v>0.55746048921636859</v>
       </c>
       <c r="K18">
-        <f>K2/B2</f>
+        <f t="shared" ref="K18:K29" si="8">K2/B2</f>
         <v>0.57283006317791219</v>
       </c>
     </row>
@@ -1471,39 +1470,39 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>1.0971128828108843</v>
       </c>
       <c r="D19">
-        <f>D3/B3</f>
+        <f t="shared" si="1"/>
         <v>1.112452953626295</v>
       </c>
       <c r="E19">
-        <f>E3/B3</f>
+        <f t="shared" si="2"/>
         <v>1.1932195074531118</v>
       </c>
       <c r="F19">
-        <f>F3/B3</f>
+        <f t="shared" si="3"/>
         <v>1.2011271118346123</v>
       </c>
       <c r="G19">
-        <f>G3/B3</f>
+        <f t="shared" si="4"/>
         <v>1.2063874969870867</v>
       </c>
       <c r="H19">
-        <f>H3/B3</f>
+        <f t="shared" si="5"/>
         <v>1.2391260851630179</v>
       </c>
       <c r="I19">
-        <f>I3/B3</f>
+        <f t="shared" si="6"/>
         <v>1.2549878427224728</v>
       </c>
       <c r="J19">
-        <f>J3/B3</f>
+        <f t="shared" si="7"/>
         <v>1.2733655549978979</v>
       </c>
       <c r="K19">
-        <f>K3/B3</f>
+        <f t="shared" si="8"/>
         <v>1.292357649527647</v>
       </c>
     </row>
@@ -1516,39 +1515,39 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.9177449732645282</v>
       </c>
       <c r="D20">
-        <f>D4/B4</f>
+        <f t="shared" si="1"/>
         <v>0.80004850571757469</v>
       </c>
       <c r="E20">
-        <f>E4/B4</f>
+        <f t="shared" si="2"/>
         <v>0.78647022950392476</v>
       </c>
       <c r="F20">
-        <f>F4/B4</f>
+        <f t="shared" si="3"/>
         <v>0.71995672399067268</v>
       </c>
       <c r="G20">
-        <f>G4/B4</f>
+        <f t="shared" si="4"/>
         <v>0.67863603025786923</v>
       </c>
       <c r="H20">
-        <f>H4/B4</f>
+        <f t="shared" si="5"/>
         <v>0.58020087309012625</v>
       </c>
       <c r="I20">
-        <f>I4/B4</f>
+        <f t="shared" si="6"/>
         <v>0.51905740529346345</v>
       </c>
       <c r="J20">
-        <f>J4/B4</f>
+        <f t="shared" si="7"/>
         <v>0.47888879132849255</v>
       </c>
       <c r="K20">
-        <f>K4/B4</f>
+        <f t="shared" si="8"/>
         <v>0.39722505965027483</v>
       </c>
     </row>
@@ -1561,39 +1560,39 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>1.4700792343224376</v>
       </c>
       <c r="D21">
-        <f>D5/B5</f>
+        <f t="shared" si="1"/>
         <v>1.7549690294231965</v>
       </c>
       <c r="E21">
-        <f>E5/B5</f>
+        <f t="shared" si="2"/>
         <v>1.7883893186656876</v>
       </c>
       <c r="F21">
-        <f>F5/B5</f>
+        <f t="shared" si="3"/>
         <v>1.8097062274704101</v>
       </c>
       <c r="G21">
-        <f>G5/B5</f>
+        <f t="shared" si="4"/>
         <v>1.7483384499182664</v>
       </c>
       <c r="H21">
-        <f>H5/B5</f>
+        <f t="shared" si="5"/>
         <v>1.7263130908920499</v>
       </c>
       <c r="I21">
-        <f>I5/B5</f>
+        <f t="shared" si="6"/>
         <v>1.764748582869839</v>
       </c>
       <c r="J21">
-        <f>J5/B5</f>
+        <f t="shared" si="7"/>
         <v>1.7436163673135221</v>
       </c>
       <c r="K21">
-        <f>K5/B5</f>
+        <f t="shared" si="8"/>
         <v>1.749879398065407</v>
       </c>
     </row>
@@ -1606,39 +1605,39 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.47044898101279886</v>
       </c>
       <c r="D22">
-        <f>D6/B6</f>
+        <f t="shared" si="1"/>
         <v>0.38545224928677196</v>
       </c>
       <c r="E22">
-        <f>E6/B6</f>
+        <f t="shared" si="2"/>
         <v>0.43530948363672162</v>
       </c>
       <c r="F22">
-        <f>F6/B6</f>
+        <f t="shared" si="3"/>
         <v>0.46584698715559325</v>
       </c>
       <c r="G22">
-        <f>G6/B6</f>
+        <f t="shared" si="4"/>
         <v>0.54784074832369656</v>
       </c>
       <c r="H22">
-        <f>H6/B6</f>
+        <f t="shared" si="5"/>
         <v>0.44980273310536451</v>
       </c>
       <c r="I22">
-        <f>I6/B6</f>
+        <f t="shared" si="6"/>
         <v>0.39409201706825325</v>
       </c>
       <c r="J22">
-        <f>J6/B6</f>
+        <f t="shared" si="7"/>
         <v>0.41978503220555374</v>
       </c>
       <c r="K22">
-        <f>K6/B6</f>
+        <f t="shared" si="8"/>
         <v>0.38981054815166954</v>
       </c>
     </row>
@@ -1651,39 +1650,39 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.87781624809489101</v>
       </c>
       <c r="D23">
-        <f>D7/B7</f>
+        <f t="shared" si="1"/>
         <v>0.83490988006096356</v>
       </c>
       <c r="E23">
-        <f>E7/B7</f>
+        <f t="shared" si="2"/>
         <v>0.61694056059903257</v>
       </c>
       <c r="F23">
-        <f>F7/B7</f>
+        <f t="shared" si="3"/>
         <v>0.59494069312835463</v>
       </c>
       <c r="G23">
-        <f>G7/B7</f>
+        <f t="shared" si="4"/>
         <v>0.65201113246305742</v>
       </c>
       <c r="H23">
-        <f>H7/B7</f>
+        <f t="shared" si="5"/>
         <v>0.65760221323967927</v>
       </c>
       <c r="I23">
-        <f>I7/B7</f>
+        <f t="shared" si="6"/>
         <v>0.59309356570141136</v>
       </c>
       <c r="J23">
-        <f>J7/B7</f>
+        <f t="shared" si="7"/>
         <v>0.68663441786495261</v>
       </c>
       <c r="K23">
-        <f>K7/B7</f>
+        <f t="shared" si="8"/>
         <v>0.9366261347823206</v>
       </c>
     </row>
@@ -1696,39 +1695,39 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>1.0379129311729414</v>
       </c>
       <c r="D24">
-        <f>D8/B8</f>
+        <f t="shared" si="1"/>
         <v>1.1061015395354701</v>
       </c>
       <c r="E24">
-        <f>E8/B8</f>
+        <f t="shared" si="2"/>
         <v>1.1829613039753302</v>
       </c>
       <c r="F24">
-        <f>F8/B8</f>
+        <f t="shared" si="3"/>
         <v>1.2274302368935308</v>
       </c>
       <c r="G24">
-        <f>G8/B8</f>
+        <f t="shared" si="4"/>
         <v>1.2561245800727401</v>
       </c>
       <c r="H24">
-        <f>H8/B8</f>
+        <f t="shared" si="5"/>
         <v>1.3106929355072583</v>
       </c>
       <c r="I24">
-        <f>I8/B8</f>
+        <f t="shared" si="6"/>
         <v>1.3408983268562615</v>
       </c>
       <c r="J24">
-        <f>J8/B8</f>
+        <f t="shared" si="7"/>
         <v>1.281066947206486</v>
       </c>
       <c r="K24">
-        <f>K8/B8</f>
+        <f t="shared" si="8"/>
         <v>1.3098419186297523</v>
       </c>
     </row>
@@ -1741,39 +1740,39 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>1.0769622010868942</v>
       </c>
       <c r="D25">
-        <f>D9/B9</f>
+        <f t="shared" si="1"/>
         <v>0.49867158268851641</v>
       </c>
       <c r="E25">
-        <f>E9/B9</f>
+        <f t="shared" si="2"/>
         <v>0.36945556442812377</v>
       </c>
       <c r="F25">
-        <f>F9/B9</f>
+        <f t="shared" si="3"/>
         <v>0.35440678728534691</v>
       </c>
       <c r="G25">
-        <f>G9/B9</f>
+        <f t="shared" si="4"/>
         <v>0.36347602159854259</v>
       </c>
       <c r="H25">
-        <f>H9/B9</f>
+        <f t="shared" si="5"/>
         <v>0.35118670694239079</v>
       </c>
       <c r="I25">
-        <f>I9/B9</f>
+        <f t="shared" si="6"/>
         <v>0.36118906931042422</v>
       </c>
       <c r="J25">
-        <f>J9/B9</f>
+        <f t="shared" si="7"/>
         <v>0.37549739873615751</v>
       </c>
       <c r="K25">
-        <f>K9/B9</f>
+        <f t="shared" si="8"/>
         <v>0.36012765032737731</v>
       </c>
     </row>
@@ -1786,39 +1785,39 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>1.0559958730009849</v>
       </c>
       <c r="D26">
-        <f>D10/B10</f>
+        <f t="shared" si="1"/>
         <v>1.6769450827744687</v>
       </c>
       <c r="E26">
-        <f>E10/B10</f>
+        <f t="shared" si="2"/>
         <v>1.2042630023917835</v>
       </c>
       <c r="F26">
-        <f>F10/B10</f>
+        <f t="shared" si="3"/>
         <v>1.8334779346245835</v>
       </c>
       <c r="G26">
-        <f>G10/B10</f>
+        <f t="shared" si="4"/>
         <v>1.3474651784458096</v>
       </c>
       <c r="H26">
-        <f>H10/B10</f>
+        <f t="shared" si="5"/>
         <v>1.544189372977536</v>
       </c>
       <c r="I26">
-        <f>I10/B10</f>
+        <f t="shared" si="6"/>
         <v>1.2476902874829994</v>
       </c>
       <c r="J26">
-        <f>J10/B10</f>
+        <f t="shared" si="7"/>
         <v>1.4705951320170707</v>
       </c>
       <c r="K26">
-        <f>K10/B10</f>
+        <f t="shared" si="8"/>
         <v>1.9630328752989727</v>
       </c>
     </row>
@@ -1831,39 +1830,39 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.96511468733308214</v>
       </c>
       <c r="D27">
-        <f>D11/B11</f>
+        <f t="shared" si="1"/>
         <v>1.779579508110918</v>
       </c>
       <c r="E27">
-        <f>E11/B11</f>
+        <f t="shared" si="2"/>
         <v>2.626555103333569</v>
       </c>
       <c r="F27">
-        <f>F11/B11</f>
+        <f t="shared" si="3"/>
         <v>2.6801799423991066</v>
       </c>
       <c r="G27">
-        <f>G11/B11</f>
+        <f t="shared" si="4"/>
         <v>2.6096273478090097</v>
       </c>
       <c r="H27">
-        <f>H11/B11</f>
+        <f t="shared" si="5"/>
         <v>2.7240480597947019</v>
       </c>
       <c r="I27">
-        <f>I11/B11</f>
+        <f t="shared" si="6"/>
         <v>2.7094527915139337</v>
       </c>
       <c r="J27">
-        <f>J11/B11</f>
+        <f t="shared" si="7"/>
         <v>2.4322974775675923</v>
       </c>
       <c r="K27">
-        <f>K11/B11</f>
+        <f t="shared" si="8"/>
         <v>2.8640295036821448</v>
       </c>
     </row>
@@ -1876,39 +1875,39 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>1.4647926674118774</v>
       </c>
       <c r="D28">
-        <f>D12/B12</f>
+        <f t="shared" si="1"/>
         <v>1.8637781183413331</v>
       </c>
       <c r="E28">
-        <f>E12/B12</f>
+        <f t="shared" si="2"/>
         <v>2.0400707749930778</v>
       </c>
       <c r="F28">
-        <f>F12/B12</f>
+        <f t="shared" si="3"/>
         <v>2.1898662289394175</v>
       </c>
       <c r="G28">
-        <f>G12/B12</f>
+        <f t="shared" si="4"/>
         <v>2.238207459513287</v>
       </c>
       <c r="H28">
-        <f>H12/B12</f>
+        <f t="shared" si="5"/>
         <v>2.2837402463680978</v>
       </c>
       <c r="I28">
-        <f>I12/B12</f>
+        <f t="shared" si="6"/>
         <v>2.3607761199350117</v>
       </c>
       <c r="J28">
-        <f>J12/B12</f>
+        <f t="shared" si="7"/>
         <v>2.4053385597231109</v>
       </c>
       <c r="K28">
-        <f>K12/B12</f>
+        <f t="shared" si="8"/>
         <v>2.384713988662329</v>
       </c>
     </row>
@@ -1921,39 +1920,39 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>0.77097589090819907</v>
       </c>
       <c r="D29">
-        <f>D13/B13</f>
+        <f t="shared" si="1"/>
         <v>0.9752900203566085</v>
       </c>
       <c r="E29">
-        <f>E13/B13</f>
+        <f t="shared" si="2"/>
         <v>1.5747676158241974</v>
       </c>
       <c r="F29">
-        <f>F13/B13</f>
+        <f t="shared" si="3"/>
         <v>1.5788757265837687</v>
       </c>
       <c r="G29">
-        <f>G13/B13</f>
+        <f t="shared" si="4"/>
         <v>1.5629705932847719</v>
       </c>
       <c r="H29">
-        <f>H13/B13</f>
+        <f t="shared" si="5"/>
         <v>1.044061020773551</v>
       </c>
       <c r="I29">
-        <f>I13/B13</f>
+        <f t="shared" si="6"/>
         <v>1.0717386505775881</v>
       </c>
       <c r="J29">
-        <f>J13/B13</f>
+        <f t="shared" si="7"/>
         <v>1.2646113849851617</v>
       </c>
       <c r="K29">
-        <f>K13/B13</f>
+        <f t="shared" si="8"/>
         <v>0.9838005542883772</v>
       </c>
     </row>
@@ -1965,440 +1964,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1.4538668159999999</v>
-      </c>
-      <c r="D1">
-        <v>1.515700015</v>
-      </c>
-      <c r="E1">
-        <v>1.73704664</v>
-      </c>
-      <c r="F1">
-        <v>1.0497268550000001</v>
-      </c>
-      <c r="G1">
-        <v>0.716776835</v>
-      </c>
-      <c r="H1">
-        <v>0.59682679199999999</v>
-      </c>
-      <c r="I1">
-        <v>0.57945793999999995</v>
-      </c>
-      <c r="J1">
-        <v>0.557460489</v>
-      </c>
-      <c r="K1">
-        <v>0.57283006299999994</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.0971128830000001</v>
-      </c>
-      <c r="D2">
-        <v>1.1124529540000001</v>
-      </c>
-      <c r="E2">
-        <v>1.193219507</v>
-      </c>
-      <c r="F2">
-        <v>1.201127112</v>
-      </c>
-      <c r="G2">
-        <v>1.2063874969999999</v>
-      </c>
-      <c r="H2">
-        <v>1.2391260850000001</v>
-      </c>
-      <c r="I2">
-        <v>1.2549878430000001</v>
-      </c>
-      <c r="J2">
-        <v>1.273365555</v>
-      </c>
-      <c r="K2">
-        <v>1.29235765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.91774497300000002</v>
-      </c>
-      <c r="D3">
-        <v>0.80004850599999999</v>
-      </c>
-      <c r="E3">
-        <v>0.78647023000000005</v>
-      </c>
-      <c r="F3">
-        <v>0.71995672399999999</v>
-      </c>
-      <c r="G3">
-        <v>0.67863602999999995</v>
-      </c>
-      <c r="H3">
-        <v>0.58020087300000001</v>
-      </c>
-      <c r="I3">
-        <v>0.51905740499999997</v>
-      </c>
-      <c r="J3">
-        <v>0.47888879099999998</v>
-      </c>
-      <c r="K3">
-        <v>0.39722506000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.470079234</v>
-      </c>
-      <c r="D4">
-        <v>1.754969029</v>
-      </c>
-      <c r="E4">
-        <v>1.788389319</v>
-      </c>
-      <c r="F4">
-        <v>1.8097062269999999</v>
-      </c>
-      <c r="G4">
-        <v>1.7483384500000001</v>
-      </c>
-      <c r="H4">
-        <v>1.726313091</v>
-      </c>
-      <c r="I4">
-        <v>1.764748583</v>
-      </c>
-      <c r="J4">
-        <v>1.743616367</v>
-      </c>
-      <c r="K4">
-        <v>1.749879398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.47044898099999999</v>
-      </c>
-      <c r="D5">
-        <v>0.38545224900000002</v>
-      </c>
-      <c r="E5">
-        <v>0.43530948400000002</v>
-      </c>
-      <c r="F5">
-        <v>0.46584698699999999</v>
-      </c>
-      <c r="G5">
-        <v>0.54784074800000004</v>
-      </c>
-      <c r="H5">
-        <v>0.44980273300000001</v>
-      </c>
-      <c r="I5">
-        <v>0.39409201700000002</v>
-      </c>
-      <c r="J5">
-        <v>0.419785032</v>
-      </c>
-      <c r="K5">
-        <v>0.38981054799999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.87781624800000002</v>
-      </c>
-      <c r="D6">
-        <v>0.83490987999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.61694056100000005</v>
-      </c>
-      <c r="F6">
-        <v>0.59494069299999996</v>
-      </c>
-      <c r="G6">
-        <v>0.65201113200000005</v>
-      </c>
-      <c r="H6">
-        <v>0.65760221299999999</v>
-      </c>
-      <c r="I6">
-        <v>0.59309356599999996</v>
-      </c>
-      <c r="J6">
-        <v>0.68663441800000002</v>
-      </c>
-      <c r="K6">
-        <v>0.93662613500000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1.0379129309999999</v>
-      </c>
-      <c r="D7">
-        <v>1.10610154</v>
-      </c>
-      <c r="E7">
-        <v>1.182961304</v>
-      </c>
-      <c r="F7">
-        <v>1.2274302370000001</v>
-      </c>
-      <c r="G7">
-        <v>1.25612458</v>
-      </c>
-      <c r="H7">
-        <v>1.3106929359999999</v>
-      </c>
-      <c r="I7">
-        <v>1.3408983269999999</v>
-      </c>
-      <c r="J7">
-        <v>1.281066947</v>
-      </c>
-      <c r="K7">
-        <v>1.3098419189999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1.076962201</v>
-      </c>
-      <c r="D8">
-        <v>0.49867158299999997</v>
-      </c>
-      <c r="E8">
-        <v>0.36945556400000001</v>
-      </c>
-      <c r="F8">
-        <v>0.354406787</v>
-      </c>
-      <c r="G8">
-        <v>0.36347602200000001</v>
-      </c>
-      <c r="H8">
-        <v>0.35118670699999999</v>
-      </c>
-      <c r="I8">
-        <v>0.36118906899999997</v>
-      </c>
-      <c r="J8">
-        <v>0.37549739900000001</v>
-      </c>
-      <c r="K8">
-        <v>0.36012765000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1.0559958730000001</v>
-      </c>
-      <c r="D9">
-        <v>1.6769450829999999</v>
-      </c>
-      <c r="E9">
-        <v>1.204263002</v>
-      </c>
-      <c r="F9">
-        <v>1.8334779349999999</v>
-      </c>
-      <c r="G9">
-        <v>1.347465178</v>
-      </c>
-      <c r="H9">
-        <v>1.544189373</v>
-      </c>
-      <c r="I9">
-        <v>1.247690287</v>
-      </c>
-      <c r="J9">
-        <v>1.4705951319999999</v>
-      </c>
-      <c r="K9">
-        <v>1.9630328749999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.96511468700000003</v>
-      </c>
-      <c r="D10">
-        <v>1.7795795080000001</v>
-      </c>
-      <c r="E10">
-        <v>2.6265551029999998</v>
-      </c>
-      <c r="F10">
-        <v>2.6801799420000001</v>
-      </c>
-      <c r="G10">
-        <v>2.6096273480000001</v>
-      </c>
-      <c r="H10">
-        <v>2.7240480599999999</v>
-      </c>
-      <c r="I10">
-        <v>2.709452792</v>
-      </c>
-      <c r="J10">
-        <v>2.4322974780000002</v>
-      </c>
-      <c r="K10">
-        <v>2.8640295039999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1.464792667</v>
-      </c>
-      <c r="D11">
-        <v>1.8637781179999999</v>
-      </c>
-      <c r="E11">
-        <v>2.0400707749999998</v>
-      </c>
-      <c r="F11">
-        <v>2.1898662290000002</v>
-      </c>
-      <c r="G11">
-        <v>2.2382074599999999</v>
-      </c>
-      <c r="H11">
-        <v>2.2837402459999998</v>
-      </c>
-      <c r="I11">
-        <v>2.3607761200000001</v>
-      </c>
-      <c r="J11">
-        <v>2.4053385600000001</v>
-      </c>
-      <c r="K11">
-        <v>2.3847139890000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0.77097589099999997</v>
-      </c>
-      <c r="D12">
-        <v>0.97529001999999998</v>
-      </c>
-      <c r="E12">
-        <v>1.5747676159999999</v>
-      </c>
-      <c r="F12">
-        <v>1.578875727</v>
-      </c>
-      <c r="G12">
-        <v>1.562970593</v>
-      </c>
-      <c r="H12">
-        <v>1.0440610210000001</v>
-      </c>
-      <c r="I12">
-        <v>1.071738651</v>
-      </c>
-      <c r="J12">
-        <v>1.264611385</v>
-      </c>
-      <c r="K12">
-        <v>0.98380055399999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>